--- a/ParkingAvailabilitySystem-Documents/Meetings/TeamMeetingLog.xlsx
+++ b/ParkingAvailabilitySystem-Documents/Meetings/TeamMeetingLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/emeurrens_ufl_edu/Documents/parking-availability-system/ParkingAvailabilitySystem-Documents/Meetings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC10484CE1DF4FE65ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE90DF9A-5262-4A82-8615-DA9BAD8CFCEA}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="11_F25DC773A252ABDACC10484CE1DF4FE65ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC11DCDE-A7CE-46B5-B62A-B583D59BB4B5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>PAS Team Meeting Log</t>
   </si>
@@ -117,6 +117,154 @@
   <si>
     <t>Met with stakeholder Raven. Discussed progress from last week. Assigned work to do for this week of sprint. Attempted demo of remotely accessing Rasberry Pi environment for programming, but was unable to perform it due to Raspberry Pi's IP on UF network changing. Instead recorded demo to be viewed later.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Met with stakeholder Raven. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group updates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - (1) UF EZ Park app developer finally let us know that we can use the code from his repository so long as we help maintain the app; (2) UF VPN is configured on the Raspberry Pi so we can access it remotely over the weekend if someone takes it home from the lab and starts the VPN, documentation in the OneNote under the "Resources" tab in the "Accessing the Pi" page; (3) Samer reviewed and demo'd his custom API which can be accessed using HTTP requests from the Pi and the App; the Postman program helps see the input to the API and expected outputs so that we can parse the JSON from the requests. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pre-Alpha Build Retrospective </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- (1) Acknowledged a need to meet more often to promote cohesion between team members working on tasks dependent on each other; decided to meet weekly on Mondays as a team to brainstorm, plan the next week's sprint, and ask each other questions on our work to help; Tuesdays, instead will be a "rapid-fire" quick stand-up session with stakeholder Raven. (2) Samer and Erik expressed a positive opinion on being able to work independently of other people's tasks, but acknowledged that going into further sprints would require more team coordination and communication,  as seen in the previous statement. (3) Erik expressed a desire to change the due date structure to ease pressures on team members; Kanban cards will be expected to be completed prior to the Monday meeting instead of the Friday the week they are due; additionally, the final day to get tasks done for the "Design Prototype" milestone will be the day before the report is due so that that day can be free to work on the report instead of having people work on Kanban board items and the report at the same time. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Assigned Kanban cards to be worked on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Updated GitHub Project Kanban board, assigning members the features they will focus on implementing.</t>
+    </r>
+  </si>
+  <si>
+    <t>Casual stand-up meeting to go over updates, ask questions, and review what got done. A lot of people were busy, so not many updates so far compared to last time. Discussed plans for the object detection model on Pi. Discussed accessing the PostgreSQL database using the API and Postman.  Announced some bugs that need to be addressed that are in the GitHub issues. Announced a change from testing the prototype device in Parking Garage 4 to the Reitz Garage.</t>
+  </si>
+  <si>
+    <t>Stakeholder meeting with Raven. Basically quick stand-up; covered everything from yesterday. Ryan printed the housing for the edge hardware and demonstrated its functionality and some issues with the print. Discussed ways to fix those issues.</t>
+  </si>
+  <si>
+    <t>Erik, Ben, Samer, Ryan</t>
+  </si>
+  <si>
+    <t>Instructor meeting #2. Discussed progress from Design Plan draft to Pre-Alpha build, current work done toward Design Prototype milestone. Discussed expectations for prototype presentation (plans can change, can be buggy or partially incomplete). Consider possibility of making custom PCB.</t>
+  </si>
+  <si>
+    <t>Stakeholder meeting with Raven. Since yesterday was Veteran's Day, we decided to do our long-form, discussion stand-up meeting alongside the stakeholder meeting as we had been doing prior to 11/4. Samer had starting working on the cloud-based ALPR model as well as added changes to the database that Erik had asked for so that the data stored in the database could better correspond with the data stored on the app. Ryan had gotten to refining the housing and hardware design, additionally attempting to make the proximity sensor more consistent. Erik had been struggling to complete the Dart API wrapper functions to interact with the database, but he almost finished; his next goal is to finally add database communication between the app itself and the database. Evan and Ben had done research on how to implement the car detection model, and had committed to working on the model this week.</t>
+  </si>
+  <si>
+    <t>Erik, Ben, Samer, Ryan (later); Evan had a flight to SHPE conference</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stakeholder meeting with Raven. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stand-up meeting: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Samer updated the database fields and demoed an object detection and ALPR pipeline, discussed potential for redundancy across the Pi and AWS model, clarified that object detection will be partitioned to the Pi whereas ALPR will be done in cloud, cool stuff. Ryan finished the new designs and is working to make the microwave-radar proximity sensor more inuitively predictable. Erik finished the API wrapper functions and put all the hard-coded parking information into database entries; struggling to integrate datbase into app. Ben and Evan are going to meet Friday to work on the object detection on Pi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Presentation planning: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Planning on meeting Monday of Thanksgiving break to go over how to work on presentation and demo. </t>
+    </r>
+  </si>
+  <si>
+    <t>SEMESTER 1</t>
+  </si>
+  <si>
+    <t>SEMESTER 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik affirmed plans to design the Pi housing and embed the Pi power supply within it so that an extension cord can be plugged in directly into the housing. Discussed a preference for setting up the test system in the Reitz Parking Garage due to the existence of one throughway (one way of entry and exit) and outlets connected to power. Lack of WiFi presence is the only negative. Alternatives include Parking Garage 14 (two throughways (-), WiFi (+), outlets (?)) and Parking Garage 4 (three throughways (-), WiFi (-), outlets (+)). Looking into methods of connection to UF network and AWS backend with lack of WiFi; most likely using LTE network requiring LTE modem and SIM card for LTE provider network (probably will cost ~$100). Ben demoed the object detection on the RPi that he had gotten functioning over the break. Determined our stakeholder meeting time to be Wednesday @ 3 pm. No change in team structure or changes in individual focus areas. Affirmed commitment to Raspberry Pi as hardware platform. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stakeholder meeting with Raven. Rehashed everything mentioned in the previous team meeting. Discussed plans for the alpha build and some long term plans for the semester. </t>
+  </si>
+  <si>
+    <t>Stakeholder meeting with Raven discussing Alpha completion and Beta beginning. Ben got the Pi object detection model to work and communicating with the AWS backend; planning on working further on it and testing it when equipment gets here. Erik presented updates on contact with admin and materials orders. Admin hasn't given approval despite being given a January 29th deadline to respond; no response means we have plausible deniability as students to test in the garage as long as we do not interfere with the normal operation of the facility (i.e. we will test anyway). Materials to start testing are scheduled to arrive on Saturday, 9 February, and testing can begin shortly after. Erik's plans for beta are uncertain; would like to work on RPi software and object detection algorithm. The solution to the wireless network issue was discussed: current plan is to create an ESP32 repeater/network access point to bridge the gap in WiFi coverage from the UF WiFi to the location of the Raspberry Pi devices. Evan will start working on this with a goal of completing it by the end of the Beta sprint. Ryan will start working on the second iteration of the Pi housing, which aims to reduce the size of the previous housing and incorporate persistent RPi 5 power supply within it. Samer will keep working on the database and object detection model, including methods of tracking cars entering and leaving.</t>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +310,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -220,11 +368,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -247,14 +432,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -271,6 +474,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q260"/>
+  <dimension ref="A1:Q261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,11 +756,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -622,51 +829,47 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>45566</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+    <row r="7" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>45573</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>45580</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -683,15 +886,15 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>45587</v>
+    <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>45580</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -709,14 +912,14 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>45590</v>
+      <c r="A9" s="11">
+        <v>45587</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -733,7 +936,16 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>45590</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -749,7 +961,16 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>45594</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -765,7 +986,16 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>45600</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -781,7 +1011,16 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>45601</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -797,7 +1036,16 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>45603</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -813,7 +1061,16 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>45608</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -829,7 +1086,16 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>45615</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -845,7 +1111,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -861,7 +1127,12 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -877,7 +1148,16 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>45677</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -893,7 +1173,16 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>45679</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -909,7 +1198,16 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>45693</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -925,7 +1223,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -941,7 +1239,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -957,7 +1255,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -973,7 +1271,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -989,7 +1287,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1005,7 +1303,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1021,7 +1319,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1037,7 +1335,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1053,7 +1351,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1069,7 +1367,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1085,7 +1383,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -4749,9 +5047,27 @@
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
     </row>
+    <row r="261" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+      <c r="N261" s="3"/>
+      <c r="O261" s="3"/>
+      <c r="P261" s="3"/>
+      <c r="Q261" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ParkingAvailabilitySystem-Documents/Meetings/TeamMeetingLog.xlsx
+++ b/ParkingAvailabilitySystem-Documents/Meetings/TeamMeetingLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/emeurrens_ufl_edu/Documents/parking-availability-system/ParkingAvailabilitySystem-Documents/Meetings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="11_F25DC773A252ABDACC10484CE1DF4FE65ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC11DCDE-A7CE-46B5-B62A-B583D59BB4B5}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="11_F25DC773A252ABDACC10484CE1DF4FE65ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C13CB22-D358-4A5A-8940-EFAD1165B486}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9564" yWindow="2652" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meeting-log" sheetId="1" r:id="rId1"/>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,6 +1224,7 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>

--- a/ParkingAvailabilitySystem-Documents/Meetings/TeamMeetingLog.xlsx
+++ b/ParkingAvailabilitySystem-Documents/Meetings/TeamMeetingLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/emeurrens_ufl_edu/Documents/parking-availability-system/ParkingAvailabilitySystem-Documents/Meetings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_F25DC773A252ABDACC10484CE1DF4FE65ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C13CB22-D358-4A5A-8940-EFAD1165B486}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="11_F25DC773A252ABDACC10484CE1DF4FE65ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC31684A-65ED-4529-975F-2C7BB2E92CD8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9564" yWindow="2652" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meeting-log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>PAS Team Meeting Log</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Stakeholder meeting with Raven discussing Alpha completion and Beta beginning. Ben got the Pi object detection model to work and communicating with the AWS backend; planning on working further on it and testing it when equipment gets here. Erik presented updates on contact with admin and materials orders. Admin hasn't given approval despite being given a January 29th deadline to respond; no response means we have plausible deniability as students to test in the garage as long as we do not interfere with the normal operation of the facility (i.e. we will test anyway). Materials to start testing are scheduled to arrive on Saturday, 9 February, and testing can begin shortly after. Erik's plans for beta are uncertain; would like to work on RPi software and object detection algorithm. The solution to the wireless network issue was discussed: current plan is to create an ESP32 repeater/network access point to bridge the gap in WiFi coverage from the UF WiFi to the location of the Raspberry Pi devices. Evan will start working on this with a goal of completing it by the end of the Beta sprint. Ryan will start working on the second iteration of the Pi housing, which aims to reduce the size of the previous housing and incorporate persistent RPi 5 power supply within it. Samer will keep working on the database and object detection model, including methods of tracking cars entering and leaving.</t>
+  </si>
+  <si>
+    <t>Stakeholder meeting discussed Beta progress. Ryan completed the second iteration of the housing, however, the 3D prints had flaws in the print and one component completely failed to print. Ben discussed progress on the Pi object detection model and current performance metrics; inference time is about 200-250 ms (4-5 fps). Goal is to reach 100 ms average. Ryan and Ben will proceed with testing the Pi on Friday. Erik completed the config script and tested USB antenna options. The config script is intended to be an evolving document that can be iterated upon. Samer worked on training the license plate recognition model. Stated that training worsened performance. Stated he has looked into the development of an administrative portal. Samer is flying to New York this weekend for an in-person job interview. Inshallah may he be safe in his travels and have success in his interview.</t>
   </si>
 </sst>
 </file>
@@ -745,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,8 +1226,16 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>45707</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>

--- a/ParkingAvailabilitySystem-Documents/Meetings/TeamMeetingLog.xlsx
+++ b/ParkingAvailabilitySystem-Documents/Meetings/TeamMeetingLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/emeurrens_ufl_edu/Documents/parking-availability-system/ParkingAvailabilitySystem-Documents/Meetings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_F25DC773A252ABDACC10484CE1DF4FE65ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC31684A-65ED-4529-975F-2C7BB2E92CD8}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="11_F25DC773A252ABDACC10484CE1DF4FE65ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4A451A-441F-4BA3-9B80-CAB659E50A85}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meeting-log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>PAS Team Meeting Log</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Stakeholder meeting discussed Beta progress. Ryan completed the second iteration of the housing, however, the 3D prints had flaws in the print and one component completely failed to print. Ben discussed progress on the Pi object detection model and current performance metrics; inference time is about 200-250 ms (4-5 fps). Goal is to reach 100 ms average. Ryan and Ben will proceed with testing the Pi on Friday. Erik completed the config script and tested USB antenna options. The config script is intended to be an evolving document that can be iterated upon. Samer worked on training the license plate recognition model. Stated that training worsened performance. Stated he has looked into the development of an administrative portal. Samer is flying to New York this weekend for an in-person job interview. Inshallah may he be safe in his travels and have success in his interview.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting to discuss Beta Presentation. Apparel most formal as possible. Trying to get a meeting time for Thursday (any time after Wednesday so we can practice our presentation with Raven). A slide for each section of the rubric (1. Context, 2. Completed Work, 3. In-Progress Work, 4. Future Work, 5. Future Plans, 6. Demo, ). Consider merging one of the slides from slides 2-4 into one and have one person present that. Live demo of system pipeline (e.g. License Plate (bring Colorado, Wyoming, or Florida plate) detected by Pi, update DB, (if time permits) show data processing through backend image pipeline, demonstrate updated counter on app). </t>
+  </si>
+  <si>
+    <t>Discussed features to work on for this sprint. Evan will continue working on ESP32 repeater until end of Spring Break; if this does not work, we will move on to a Raspberry Pi for a hotspot/repeater or look into utilizing the Sierra Airwave XT Intelligent LTE Gateway. Ryan will work on the third iteration of the housing, which may not be final, given we don't have data to work with to improve the housing. Ben will work on the camera configuration to improve camera image sharpness. Samer will do tracking, something relating to the S3 bucket and image caching, and other stuff that flew over my head. I will work on benchmark tests for hardware (temperature, frequency, and power) and possible connectivity, and hardware methods to speedup inference time (ensuring maximum core utilization, overclocking)</t>
   </si>
 </sst>
 </file>
@@ -748,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,7 +1257,16 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>45714</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1267,7 +1282,16 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>45728</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
